--- a/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
@@ -1595,7 +1595,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1980245127", "https://openalex.org/W2002665560", "https://openalex.org/W2106003470", "https://openalex.org/W2190220707", "https://openalex.org/W2433835599", "https://openalex.org/W2400504790", "https://openalex.org/W2769733322", "https://openalex.org/W4362495310", "https://openalex.org/W2429027331", "https://openalex.org/W2165919621")</t>
+          <t>c("https://openalex.org/W2088520467", "https://openalex.org/W2075763133", "https://openalex.org/W2169923957", "https://openalex.org/W2376423713", "https://openalex.org/W1583600832", "https://openalex.org/W327632197", "https://openalex.org/W2527052769", "https://openalex.org/W4389265089", "https://openalex.org/W2038074812", "https://openalex.org/W2090115194")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2071497196", "https://openalex.org/W1527340722", "https://openalex.org/W2314866947", "https://openalex.org/W2028243862", "https://openalex.org/W2060954315", "https://openalex.org/W1573333099", "https://openalex.org/W2037200703", "https://openalex.org/W2154730918", "https://openalex.org/W970402543", "https://openalex.org/W2125916283")</t>
+          <t>c("https://openalex.org/W3128547036", "https://openalex.org/W1996111260", "https://openalex.org/W2107825767", "https://openalex.org/W2913541467", "https://openalex.org/W2022351074", "https://openalex.org/W2935254431", "https://openalex.org/W3159453404", "https://openalex.org/W2128515533", "https://openalex.org/W4307544679", "https://openalex.org/W2399252004")</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W3013358603", "https://openalex.org/W2763237291", "https://openalex.org/W2885662959", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832")</t>
+          <t>c("https://openalex.org/W2082860237", "https://openalex.org/W2119695867", "https://openalex.org/W2130076355", "https://openalex.org/W1990804418", "https://openalex.org/W1993764875", "https://openalex.org/W2046158694", "https://openalex.org/W2788277189", "https://openalex.org/W2013243191", "https://openalex.org/W2117258802", "https://openalex.org/W4234157524")</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W2123037811", "https://openalex.org/W121009447", "https://openalex.org/W2017372544", "https://openalex.org/W2028090716", "https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2794656614")</t>
+          <t>c("https://openalex.org/W2082860237", "https://openalex.org/W2119695867", "https://openalex.org/W2130076355", "https://openalex.org/W1990804418", "https://openalex.org/W1993764875", "https://openalex.org/W2046158694", "https://openalex.org/W2788277189", "https://openalex.org/W2013243191", "https://openalex.org/W2117258802", "https://openalex.org/W4234157524")</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
@@ -2346,22 +2346,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Journal of Urology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S30525748</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0022-5347</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4307544679", "https://openalex.org/W2071497196", "https://openalex.org/W2399252004", "https://openalex.org/W1527340722", "https://openalex.org/W2314866947", "https://openalex.org/W2028243862", "https://openalex.org/W2382829097", "https://openalex.org/W2155769759", "https://openalex.org/W2060954315", "https://openalex.org/W970402543")</t>
+          <t>c("https://openalex.org/W2365516742", "https://openalex.org/W2055808176", "https://openalex.org/W3128547036", "https://openalex.org/W2106281886", "https://openalex.org/W4206653363", "https://openalex.org/W2155308439", "https://openalex.org/W2107825767", "https://openalex.org/W4321597908", "https://openalex.org/W4248106857", "https://openalex.org/W2022351074")</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2382776397", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W2320606495")</t>
+          <t>c("https://openalex.org/W2365516742", "https://openalex.org/W2165132828", "https://openalex.org/W4234806968", "https://openalex.org/W2937181318", "https://openalex.org/W2543202296", "https://openalex.org/W2507081987", "https://openalex.org/W3148046299", "https://openalex.org/W2055808176", "https://openalex.org/W2013913094", "https://openalex.org/W2185064384")</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2071497196", "https://openalex.org/W1527340722", "https://openalex.org/W2314866947", "https://openalex.org/W2028243862", "https://openalex.org/W2060954315", "https://openalex.org/W1573333099", "https://openalex.org/W4207066618", "https://openalex.org/W2037200703", "https://openalex.org/W970402543", "https://openalex.org/W2154730918")</t>
+          <t>c("https://openalex.org/W1996111260", "https://openalex.org/W2913541467", "https://openalex.org/W3128547036", "https://openalex.org/W2399252004", "https://openalex.org/W2054774672", "https://openalex.org/W2630893866", "https://openalex.org/W2166954714", "https://openalex.org/W2935254431", "https://openalex.org/W2734344402", "https://openalex.org/W2107825767")</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2071497196", "https://openalex.org/W1527340722", "https://openalex.org/W2314866947", "https://openalex.org/W2028243862", "https://openalex.org/W2060954315", "https://openalex.org/W1573333099", "https://openalex.org/W2037200703", "https://openalex.org/W2154730918", "https://openalex.org/W970402543", "https://openalex.org/W2125916283")</t>
+          <t>c("https://openalex.org/W3128547036", "https://openalex.org/W1996111260", "https://openalex.org/W2107825767", "https://openalex.org/W2913541467", "https://openalex.org/W2022351074", "https://openalex.org/W2935254431", "https://openalex.org/W3159453404", "https://openalex.org/W2128515533", "https://openalex.org/W4307544679", "https://openalex.org/W2399252004")</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3013358603", "https://openalex.org/W2763237291", "https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420")</t>
+          <t>c("https://openalex.org/W2082860237", "https://openalex.org/W2119695867", "https://openalex.org/W2130076355", "https://openalex.org/W1990804418", "https://openalex.org/W1993764875", "https://openalex.org/W2046158694", "https://openalex.org/W2788277189", "https://openalex.org/W1971568933", "https://openalex.org/W2013243191", "https://openalex.org/W2117258802")</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W3013358603", "https://openalex.org/W2763237291")</t>
+          <t>c("https://openalex.org/W2030920257", "https://openalex.org/W2075794279", "https://openalex.org/W1982711599", "https://openalex.org/W1600284200", "https://openalex.org/W2165132828", "https://openalex.org/W1970206687", "https://openalex.org/W1978339230", "https://openalex.org/W100512835", "https://openalex.org/W1979752299", "https://openalex.org/W21087025")</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2370215344", "https://openalex.org/W2764038087", "https://openalex.org/W2382776397", "https://openalex.org/W2794656614", "https://openalex.org/W2027244603", "https://openalex.org/W2964845832", "https://openalex.org/W2320606495")</t>
+          <t>c("https://openalex.org/W2082860237", "https://openalex.org/W2119695867", "https://openalex.org/W2130076355", "https://openalex.org/W1990804418", "https://openalex.org/W1993764875", "https://openalex.org/W2046158694", "https://openalex.org/W2788277189", "https://openalex.org/W1971568933", "https://openalex.org/W2013243191", "https://openalex.org/W2117258802")</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2370215344", "https://openalex.org/W2764038087", "https://openalex.org/W2382776397", "https://openalex.org/W2794656614", "https://openalex.org/W2027244603", "https://openalex.org/W2964845832", "https://openalex.org/W2320606495", "https://openalex.org/W2885662959")</t>
+          <t>c("https://openalex.org/W2365516742", "https://openalex.org/W2165132828", "https://openalex.org/W4234806968", "https://openalex.org/W2937181318", "https://openalex.org/W2543202296", "https://openalex.org/W2507081987", "https://openalex.org/W3148046299", "https://openalex.org/W2055808176", "https://openalex.org/W2013913094", "https://openalex.org/W2185064384")</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4307544679", "https://openalex.org/W2399252004", "https://openalex.org/W2314866947", "https://openalex.org/W2028243862", "https://openalex.org/W2382829097", "https://openalex.org/W2155769759", "https://openalex.org/W2998328045", "https://openalex.org/W2398022422", "https://openalex.org/W1984644937", "https://openalex.org/W2132104888")</t>
+          <t>c("https://openalex.org/W2030920257", "https://openalex.org/W2075794279", "https://openalex.org/W1982711599", "https://openalex.org/W1600284200", "https://openalex.org/W2165132828", "https://openalex.org/W1970206687", "https://openalex.org/W1978339230", "https://openalex.org/W100512835", "https://openalex.org/W1979752299", "https://openalex.org/W21087025")</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W3013358603", "https://openalex.org/W2763237291")</t>
+          <t>c("https://openalex.org/W2165132828", "https://openalex.org/W4234806968", "https://openalex.org/W2937181318", "https://openalex.org/W2543202296", "https://openalex.org/W2507081987", "https://openalex.org/W3148046299", "https://openalex.org/W2055808176", "https://openalex.org/W2013913094", "https://openalex.org/W2185064384", "https://openalex.org/W2090562681")</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2764038087", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W3013358603", "https://openalex.org/W2763237291")</t>
+          <t>c("https://openalex.org/W2365516742", "https://openalex.org/W2082860237", "https://openalex.org/W2119695867", "https://openalex.org/W2130076355", "https://openalex.org/W1990804418", "https://openalex.org/W1993764875", "https://openalex.org/W2046158694", "https://openalex.org/W2788277189", "https://openalex.org/W1971568933", "https://openalex.org/W2013243191")</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2885662959", "https://openalex.org/W3007115844", "https://openalex.org/W2043890160", "https://openalex.org/W2794656614", "https://openalex.org/W2964845832", "https://openalex.org/W2937513126", "https://openalex.org/W2288298420", "https://openalex.org/W3013358603", "https://openalex.org/W2763237291", "https://openalex.org/W2764038087")</t>
+          <t>c("https://openalex.org/W2365516742", "https://openalex.org/W2030920257", "https://openalex.org/W2075794279", "https://openalex.org/W1982711599", "https://openalex.org/W1600284200", "https://openalex.org/W2165132828", "https://openalex.org/W1970206687", "https://openalex.org/W1978339230", "https://openalex.org/W100512835", "https://openalex.org/W1979752299")</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2356105190", "https://openalex.org/W2962601203", "https://openalex.org/W2362655045", "https://openalex.org/W2189427681", "https://openalex.org/W2810602217", "https://openalex.org/W2530851007", "https://openalex.org/W1975192370", "https://openalex.org/W2915965072", "https://openalex.org/W2221425694", "https://openalex.org/W1980245127")</t>
+          <t>c("https://openalex.org/W2503350049", "https://openalex.org/W2329386257", "https://openalex.org/W299695548", "https://openalex.org/W3171449477", "https://openalex.org/W2384122898", "https://openalex.org/W2397616145", "https://openalex.org/W151774199", "https://openalex.org/W4281885123", "https://openalex.org/W2345040638", "https://openalex.org/W2087041286")</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Alejandro RecioBoiles_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Washington; Fred Hutchinson Cancer Center, Seattle, WA; Department of Medical Oncology &amp; Clinical Research Unit, Institut Claudius Regaud/Institut Universitaire du Cancer de Toulouse (IUCT-Oncopôle), Toulouse, France; Norton Cancer Institute, Louisville, KY; Institut de Cancérologie Strasbourg Europe, Strasbourg, France; Rocky Mountain Cancer Centers, Littleton, CO; Yale School of Medicine, New Haven, CT; Huntsman Cancer Institute, Salt Lake City, UT; Huntsman Cancer Institute at the University of Utah, Salt Lake City, UT; Centre Léon Bérard, Lyon, France; University of Texas Health Science Center at San Antonio, San Antonio, TX; Vanderbilt-Ingram Cancer Center, Nashville, TN; University of Arizona Cancer Center, Tucson, AZ; Weill Cornell Medical College of Cornell University, New York, NY; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; Weill Cornell Medical College of Cornell University, New York, NY; Institut de Cancérologie Gustave Roussy, Université Paris-Saclay, Villejuif, France</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324136710</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Primary analysis of TROPHY-U-01 cohort 3, a phase 2 study of sacituzumab govitecan (SG) in combination with pembrolizumab (Pembro) in patients (pts) with metastatic urothelial cancer (mUC) that progressed after platinum (PT)-based therapy.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.518</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.518</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Hospital Universitario Marques de Valdecilla, IDIVAL, Santander, Cantabria, Spain; IRCCS Ospedale San Raffaele, Segrate, Milan, Italy; Barts Cancer Centre, Queen Mary University of London, London, United Kingdom; Gustave Roussy, Université Paris-Saclay, Villejuif, France; University of Texas Health Science Center at San Antonio, San Antonio, TX; University of Arizona Cancer Center, Tucson, AZ; University of Chicago, Chicago, IL; Universität Tübingen, Tübingen, Baden-Württemberg, Germany; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; University of Washington; Fred Hutchinson Cancer Center, Seattle, WA; Institut de Cancérologie Strasbourg Europe, Strasbourg, France</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324136725</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>TROPHY-U-01 cohort 6: Sacituzumab govitecan (SG), SG plus zimberelimab (ZIM), SG plus ZIM plus domvanalimab (DOM), or carboplatin (CARBO) + gemcitabine (GEM) in cisplatin-ineligible patients (pts) with treatment-naive metastatic urothelial cancer (mUC).</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.tps592</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.tps592</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, University of Arizona, South Campus, Tuscon, AZ; Department of Hepatology, Liver Institute Northwest, Seattle, WA; Department of Internal Medicine, University of Arizona, South Campus, Tuscon, AZ; Department of Internal Medicine, University of California San Francisco, Fresno, CA; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Medicine, Dayanand Medical College and Hospital, Ludhiana; Department of Internal Medicine, Ross University School of Medicine, Bridgetown; Department of Hematology &amp; Medical Oncology, University of Arizona Cancer Center, Tuscon, AZ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380224536</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Impact of Aspirin Use on Outcomes in Patients With Hepatocellular Cancer: A Nationwide Analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>World Journal of Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.14740/wjon1601</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37350804</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.14740/wjon1601</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Barts Cancer Centre at St. Bartholomew's Hospital, London, United Kingdom; IRCCS Ospedale San Raffaele, Segrate, Milan, Italy; Hospital Universitario Marques de Valdecilla, IDIVAL, Santander, Cantabria, Spain; Institut de Cancérologie Gustave Roussy, Université Paris-Saclay, Villejuif, France; University of Texas Health Science Center at San Antonio, San Antonio, TX; University of Arizona Cancer Center, Tucson, AZ; University of Chicago, Chicago, IL; Universität Tübingen, Tübingen, Baden-Württemberg, Germany; Gilead Sciences, Inc, Morris Plains, NJ; Gilead Sciences, Inc, Morris Plains, NJ; University of Washington; Fred Hutchinson Cancer Center, Seattle, WA; Institut de Cancérologie Strasbourg Europe, Strasbourg, France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4324136507</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>TROPHU-U-01 cohort 5: Evaluation of maintenance sacituzumab govitecan (SG) plus zimberelimab (ZIM), ZIM, or avelumab in cisplatin-eligible patients (pts) with unresectable or metastatic urothelial cancer (mUC).</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.tps598</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.6_suppl.tps598</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Tecnológico de Monterrey Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Internal Medicine Residency Program, Tucson, USA; Tecnológico de Monterrey Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Internal Medicine Residency Program, Tucson, USA; Tecnológico de Monterrey Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Internal Medicine Residency Program, Tucson, USA; Tecnológico de Monterrey Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Internal Medicine Residency Program, Tucson, USA; Tecnológico de Monterrey Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Internal Medicine Residency Program, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4366235879</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Health Disparities in Presentation, Treatment, Genomic Testing, and Outcomes of Pancreatic Cancer in Hispanic and Non-Hispanic Patients</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Journal of Racial and Ethnic Health Disparities</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40615-022-01486-1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37071331</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s40615-022-01486-1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>The University of Arizona Cancer Center, Tucson, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Karmanos Cancer Institute, Wayne State University School of Medicine, Detroit, MI; University of California San Diego, La Jolla, CA; The University of Arizona Cancer Center, Tucson, AZ; The University of Arizona Cancer Center, Tucson, AZ; Caris Life Sciences, Phoenix, AZ; The University of Arizona Cancer Center, Tucson, AZ; The University of Arizona Cancer Center, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379281439</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Characterizing the role of PIM kinases in the prostate tumor immune microenvironment.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e17080</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.e17080</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ricardo J. Estrada‐Mendizabal, Ritika Halder, A. Ravishankar Rao, Ce Cheng, Isabellyana Dominguez, Sumana Veeravelli, Alejandro Recio-Boiles</t>
+          <t>Armaan Dhaliwal, Megan Kathleen Taylor, Aaron Bertolo, Ricardo J. Estrada‐Mendizabal, Kathylynn Saboda, Denise J. Roe, Juan Chipollini, Ronald L. Heimark, Ken Batai, Alejandro Recio Boiles</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317862704</t>
+          <t>University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ; Tecnologico de Monterrey, Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tuscon, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Disparities in late-stage pancreatic cancer: Retrospective analysis of genomic testing and outcomes between Hispanics and non-Hispanics.</t>
+          <t>https://openalex.org/W4324136491</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Genomic profiling between Hispanic Americans (HA) and non-Hispanic (NHW) with advanced prostate cancer: A retrospective analysis of tissue, liquid, and germline testing.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.663</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.663</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.30</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,42 +1056,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Armaan Dhaliwal, Megan Kathleen Taylor, Aaron Bertolo, Ricardo J. Estrada‐Mendizabal, Kathylynn Saboda, Denise J. Roe, Juan Chipollini, Ronald L. Heimark, Ken Batai, Alejandro Recio Boiles</t>
+          <t>Aaron Bertolo, Ricardo J. Estrada‐Mendizabal, Armaan Dhaliwal, Megan Kathleen Taylor, Kathylynn Saboda, Denise J. Roe, Juan Chipollini, Ken Batai, Ronald L. Heimark, Alejandro Recio-Boiles</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324136491</t>
+          <t>University of Arizona, Tucson, AZ; Tecnologico de Monterrey, Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona, Tucson, AZ; University of Arizona, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ; The University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tuscon, AZ; The University of Arizona Cancer Center, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Genomic profiling between Hispanic Americans (HA) and non-Hispanic (NHW) with advanced prostate cancer: A retrospective analysis of tissue, liquid, and germline testing.</t>
+          <t>https://openalex.org/W4324136552</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Health disparities in metastatic hormone-sensitive prostate cancer (mHSPC) presentations and outcomes among Hispanic Americans (HA) versus non-Hispanic Whites (NHW).</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.30</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.31</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.30</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.31</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aaron Bertolo, Ricardo J. Estrada‐Mendizabal, Armaan Dhaliwal, Megan Kathleen Taylor, Kathylynn Saboda, Denise J. Roe, Juan Chipollini, Ken Batai, Ronald L. Heimark, Alejandro Recio-Boiles</t>
+          <t>Jordyn Kreutzfeldt, Mavis Obeng-Kusi, Ricardo J. Estrada‐Mendizabal, Briana Choi, Ivo Abraham, Alejandro Recio-Boiles</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324136552</t>
+          <t>University of Arizona Internal Medicine Residency Program, Tucson, AZ; University of Arizona College of Pharmacy, Tucson, AZ; Tecnologico de Monterrey, Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico; University of Arizona College of Pharmacy, Tucson, AZ; University of Arizona of Pharmacy, Department of Pharmacy Practice and Science, Tucson, AZ; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Health disparities in metastatic hormone-sensitive prostate cancer (mHSPC) presentations and outcomes among Hispanic Americans (HA) versus non-Hispanic Whites (NHW).</t>
+          <t>https://openalex.org/W4324136780</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Overall survival, efficacy, and safety outcomes beyond front-line modern therapies in metastatic clear-cell renal cell carcinoma.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-02-20</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.31</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.667</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.31</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.667</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jordyn Kreutzfeldt, Mavis Obeng-Kusi, Ricardo J. Estrada‐Mendizabal, Briana Choi, Ivo Abraham, Alejandro Recio-Boiles</t>
+          <t>Irasema Paster, Jiping Zeng, Alejandro Recio-Boiles, Juan Chipollini</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324136780</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Overall survival, efficacy, and safety outcomes beyond front-line modern therapies in metastatic clear-cell renal cell carcinoma.</t>
+          <t>https://openalex.org/W4360606272</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>MP46-05 GENDER, RACIAL AND ETHNIC DIFFERENCES IN PATHOLOGIC RESPONSE FOLLOWING NEOADJUVANT CHEMOTHERAPY FOR BLADDER CANCER PATIENTS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>The Journal of Urology</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.667</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1097/ju.0000000000003292.05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.6_suppl.667</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/ju.0000000000003292.05</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Irasema Paster, Jiping Zeng, Alejandro Recio-Boiles, Juan Chipollini</t>
+          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360606272</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MP46-05 GENDER, RACIAL AND ETHNIC DIFFERENCES IN PATHOLOGIC RESPONSE FOLLOWING NEOADJUVANT CHEMOTHERAPY FOR BLADDER CANCER PATIENTS</t>
+          <t>https://openalex.org/W4361238196</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>Data from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>The Journal of Urology</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ju.0000000000003292.05</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6507092</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/ju.0000000000003292.05</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6507092</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238196</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Data from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238239</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6507092</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22406510</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6507092</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406510</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,24 +1496,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238239</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238240</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406510</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406525</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406510</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406525</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,24 +1583,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238240</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361238254</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406525</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406528</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406525</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406528</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238247</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238256</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406516.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406495</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406516.v1</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406495</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238254</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238305</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Data from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406528</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6507092.v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406528</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6507092.v1</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,24 +1844,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238256</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238336</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406495</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406519.v1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406495</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406519.v1</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,24 +1931,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238305</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Data from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238341</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6507092.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22406516</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6507092.v1</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406516</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,24 +2018,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238336</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238368</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Supplemental Figures S1-S8 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406519.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406531.v1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406519.v1</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406531.v1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,24 +2105,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238341</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238438</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406516</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406489</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406516</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406489</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,24 +2192,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238359</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238449</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406507.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406504</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406507.v1</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406504</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,24 +2279,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238368</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplemental Figures S1-S8 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238453</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406531.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406498</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406531.v1</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406498</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,24 +2366,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238438</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238539</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Supplemental Figures S1-S8 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406489</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406531</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406489</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406531</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,24 +2453,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238449</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238540</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406504</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406498.v1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406504</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406498.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,24 +2540,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238453</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238677</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406498</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406528.v1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406498</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406528.v1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,24 +2627,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238539</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supplemental Figures S1-S8 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238691</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406531</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406501</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406531</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406501</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,24 +2714,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238540</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238814</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2604,50 +2739,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406498.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406492</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406498.v1</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406492</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,24 +2801,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238677</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238844</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406528.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406507</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406528.v1</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406507</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2743,24 +2888,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238691</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238880</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2768,50 +2913,55 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406501</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.22406513.v1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406501</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406513.v1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2825,24 +2975,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238814</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361238909</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2850,50 +3000,55 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406492</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406492.v1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>da</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406492</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406492.v1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2907,24 +3062,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238844</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361238989</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2932,50 +3087,55 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406507</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406522.v1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406507</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406522.v1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2989,24 +3149,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238880</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361240011</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406513.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22406513</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406513.v1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406513</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3071,24 +3236,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238909</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361240088</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406492.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406525.v1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406492.v1</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406525.v1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3153,24 +3323,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238989</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361240216</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3178,50 +3348,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406522.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406501.v1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406522.v1</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406501.v1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3235,24 +3410,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361240011</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361240223</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3260,50 +3435,55 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406513</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406495.v1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406513</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406495.v1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3317,24 +3497,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361240088</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supplemental Methods from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361240229</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406525.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406510.v1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406525.v1</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406510.v1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3399,24 +3584,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361240216</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361258089</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3424,50 +3609,55 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406501.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406489.v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406501.v1</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406489.v1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3481,24 +3671,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361240223</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supplemental Table S5 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361258167</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406495.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406504.v1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406495.v1</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406504.v1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3563,24 +3758,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361240229</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361258184</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406510.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406522</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406510.v1</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406522</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3645,24 +3845,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361258089</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Supplemental Table and Figure Legends from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4361258221</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3670,50 +3870,55 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406489.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22406519</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>da</t>
-        </is>
-      </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406489.v1</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406519</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,80 +3927,85 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
+          <t>Irasema Concepcion Paster, Jiping Zeng, Alejandro Recio-Boiles, Juan Chipollini</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361258167</t>
+          <t>Department of Urology, University of Arizona, Tucson, AZ; Department of Urology, University of Arizona, Tucson, AZ; Department of Medicine, University of Arizona Cancer Center, Tucson, AZ; Department of Urology, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Supplemental Table S4 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4377695014</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Gender, Racial and Ethnic Differences in Pathologic Response Following Neoadjuvant Chemotherapy for Bladder Cancer Patients</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Urology</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406504.v1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.urology.2023.03.053</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406504.v1</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37230271</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.urology.2023.03.053</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,80 +4014,85 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
+          <t>Chethan Ramamurthy, Alejandro Recio-Boiles, Petros Grivas, Umang Swami, Yohann Loriot, Julia Tonelli, Mitch Sierecki, Philippe Barthélémy</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361258184</t>
+          <t>Mays Cancer Center, Philadelphia, PA; The University of Arizona Cancer Center, Tucson, AZ; University of Washington; Fred Hutchinson Cancer Center, Seattle, WA; Huntsman Cancer Institute at the University of Utah, Salt Lake City, UT; Gustave Roussy and Paris Saclay University, Villejuif, France; Gilead Sciences, Inc, Foster City, CA; Gilead Sciences, Inc., Foster City, CA; Institut de Cancérologie Strasbourg Europe, Strasbourg, France</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4379282949</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>TROPHY-U-01 Cohort 4 (C4): Sacituzumab govitecan (SG) in combination with cisplatin (cis) as first-line (1L) therapy, followed by maintenance avelumab plus (+) SG or zimberelimab (zim) + SG in patients (pts) with treatment (Tx)-naïve metastatic urothelial cancer (mUC).</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406522</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4611</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406522</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4611</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,80 +4101,85 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
+          <t>Bartosz Chmielowski, S. John Weroha, Susanna Ulahannan, Deborah Doroshow, Frances Valdes, Tanios Bekaii‐Saab, John D. Powderly, Alejandro Recio-Boiles, Jordan Berlin, Yan Xing, Shruti Khurana, Philippe C. Bishop, Steven J. Isakoff, Benjamin A. Weinberg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361258221</t>
+          <t>University of California Los Angeles, Jonsson Comprehensive Cancer Center, Los Angeles, CA; Mayo Clinic, Rochester, MN; Stephenson Cancer Center, Oklahoma City, OK; Division of Hematology and Medical Oncology, The Tisch Cancer Institute, Icahn School of Medicine at Mount Sinai, New York, NY; University of Miami, Miami, FL; Mayo Clinic Cancer Center Scottsdale, Phoenix, AZ; Carolina BioOncology Institute, Huntersville, NC; The University of Arizona Cancer Center, Tucson, AZ; Vanderbilt University Medical Center, Nashville, TN; City of Hope Comprehensive Cancer Center, Duarte, CA; Atreca, Inc., San Carlos, CA; Atreca, Inc., San Carlos, CA; Massachusetts General Hospital, Boston, MA; Georgetown University Medical Center, Washington, DC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Supplemental Table S1 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
+          <t>https://openalex.org/W4379283088</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Interim update of the ATRC-101 phase 1b trial in advanced solid tumors.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22406519</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2505</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/0008-5472.22406519</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2505</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,80 +4188,85 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Alejandro Recio-Boiles, Sachin Kumar Deshmukh, Juan Chipollini, Ken Batai, Sharon Wu, Joanne Xiu, Alex Farrell, Milan Radovich, Elisabeth I. Heath, Rana R. McKay, Chadi Nabhan</t>
+          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362524696</t>
+          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Abstract 1895: Molecular characterization of prostate cancer between Hispanic American and Non-Hispanic Whites: Implications for cancer ethnic health disparities</t>
+          <t>https://openalex.org/W4390273304</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>Cancers</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-1895</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/cancers16010131</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-1895</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/cancers16010131</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,42 +4275,42 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Irasema Concepcion Paster, Jiping Zeng, Alejandro Recio-Boiles, Juan Chipollini</t>
+          <t>Ricardo J. Estrada‐Mendizabal, Ritika Halder, A. Ravishankar Rao, Ce Cheng, Isabellyana Dominguez, Sumana Veeravelli, Alejandro Recio-Boiles</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4377695014</t>
+          <t>Tecnologico de Monterrey, Escuela de Medicina y Ciencias de la Salud, Monterrey, Mexico;; The University of Arizona Cancer Center, Tucson, AZ;; The University of Arizona Cancer Center, Tucson, AZ;; Hematology and Oncology, Trinity Health Ann Arbor, Ypsilanti, MI;; The University of Arizona Cancer Center, Tucson, AZ;; University of California Davis Comprehensive Cancer Center, Sacramento, CA;; The University of Arizona Cancer Center, Tucson, AZ;</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gender, Racial and Ethnic Differences in Pathologic Response Following Neoadjuvant Chemotherapy for Bladder Cancer Patients</t>
+          <t>https://openalex.org/W4317862704</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>Disparities in late-stage pancreatic cancer: Retrospective analysis of genomic testing and outcomes between Hispanics and non-Hispanics.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Urology</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.urology.2023.03.053</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.663</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4095,35 +4320,40 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37230271</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.urology.2023.03.053</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.663</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4132,80 +4362,85 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chethan Ramamurthy, Alejandro Recio-Boiles, Petros Grivas, Umang Swami, Yohann Loriot, Julia Tonelli, Mitch Sierecki, Philippe Barthélémy</t>
+          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379282949</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TROPHY-U-01 Cohort 4 (C4): Sacituzumab govitecan (SG) in combination with cisplatin (cis) as first-line (1L) therapy, followed by maintenance avelumab plus (+) SG or zimberelimab (zim) + SG in patients (pts) with treatment (Tx)-naïve metastatic urothelial cancer (mUC).</t>
+          <t>https://openalex.org/W4361238247</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Supplemental Table S2 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4611</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22406516.v1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4611</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406516.v1</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4214,80 +4449,85 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bartosz Chmielowski, S. John Weroha, Susanna Ulahannan, Deborah Doroshow, Frances Valdes, Tanios Bekaii‐Saab, John D. Powderly, Alejandro Recio-Boiles, Jordan Berlin, Yan Xing, Shruti Khurana, Philippe C. Bishop, Steven J. Isakoff, Benjamin A. Weinberg</t>
+          <t>Matthias Ilmer, Alejandro Recio Boiles, Ivonne Regel, Kohei Yokoi, Christoph Michalski, Ignacio I. Wistuba, Jaime Rodrı́guez, Eckhard Alt, Jody Vykoukal</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379283088</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Interim update of the ATRC-101 phase 1b trial in advanced solid tumors.</t>
+          <t>https://openalex.org/W4361238359</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Supplemental Table S3 from RSPO2 Enhances Canonical Wnt Signaling to Confer Stemness-Associated Traits to Susceptible Pancreatic Cancer Cells</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2505</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22406507.v1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.2505</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22406507.v1</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4296,42 +4536,42 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ricardo J. Estrada‐Mendizabal, Armaan Dhaliwal, Aaron Bertolo, Ken Batai, Ronald L. Heimark, Alejandro Recio-Boiles, Juan Chipollini</t>
+          <t>Alejandro Recio-Boiles, Sachin Kumar Deshmukh, Juan Chipollini, Ken Batai, Sharon Wu, Joanne Xiu, Alex Farrell, Milan Radovich, Elisabeth I. Heath, Rana R. McKay, Chadi Nabhan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387398428</t>
+          <t>1The University of Arizona Cancer Center, Tucson, AZ;; 2Caris Life Sciences, Phoenix, AZ;; 1The University of Arizona Cancer Center, Tucson, AZ;; 3Roswell Park Comprehensive Cancer Cen, Buffalo, NY;; 2Caris Life Sciences, Phoenix, AZ;; 2Caris Life Sciences, Phoenix, AZ;; 2Caris Life Sciences, Phoenix, AZ;; 2Caris Life Sciences, Phoenix, AZ;; 4Karmanos Cancer Institute, Wayne State University, Detroit, MI;; 5Moores Cancer Center, University of California, San Diego, CA.; 2Caris Life Sciences, Phoenix, AZ;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Prostate Cancer Disparities in Metastatic and Treatment Status for Hispanic Americans Based on Country of Origin Compared to Non-Hispanic Whites Using the National Cancer Database</t>
+          <t>https://openalex.org/W4362524696</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Abstract 1895: Molecular characterization of prostate cancer between Hispanic American and Non-Hispanic Whites: Implications for cancer ethnic health disparities</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Clinical Genitourinary Cancer</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.clgc.2023.10.002</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-1895</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4341,35 +4581,40 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37903669</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.clgc.2023.10.002</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1538-7445.am2023-1895</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4378,80 +4623,85 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
+          <t>Ricardo J. Estrada‐Mendizabal, Armaan Dhaliwal, Aaron Bertolo, Ken Batai, Ronald L. Heimark, Alejandro Recio-Boiles, Juan Chipollini</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390273304</t>
+          <t>School of Medicine and Health Science, Tecnologico de Monterrey, Monterrey, Nuevo Leon, Mexico; Department of Medicine, University of Arizona, AZ; Department of Medicine, University of Arizona, AZ; Cancer Prevention &amp; Control, Roswell Park Comprehensive Cancer Center, Buffalo, NY; University of Arizona Cancer Center, Tucson, AZ; Department of Medicine, University of Arizona, AZ; Department of Urology, University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
+          <t>https://openalex.org/W4387398428</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>Prostate Cancer Disparities in Metastatic and Treatment Status for Hispanic Americans Based on Country of Origin Compared to Non-Hispanic Whites Using the National Cancer Database</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Clinical Genitourinary Cancer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.clgc.2023.10.002</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37903669</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.clgc.2023.10.002</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>article</t>
         </is>
